--- a/tests/格式檢查/D-SL07-001｜合成音稿Sample.xlsx
+++ b/tests/格式檢查/D-SL07-001｜合成音稿Sample.xlsx
@@ -22,7 +22,7 @@
     <t>錄音編號</t>
   </si>
   <si>
-    <t>Seediq Tgdaya 語</t>
+    <t>Tgdaya</t>
   </si>
   <si>
     <t>華語</t>
@@ -125,7 +125,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -239,7 +239,7 @@
     <tableColumn name="2句" id="1"/>
     <tableColumn name="錄音編號" id="2"/>
     <tableColumn name="23詞" id="3"/>
-    <tableColumn name="Seediq Tgdaya 語" id="4"/>
+    <tableColumn name="Tgdaya" id="4"/>
     <tableColumn name="華語" id="5"/>
     <tableColumn name="備註" id="6"/>
   </tableColumns>
@@ -253,7 +253,7 @@
     <tableColumn name="2句" id="1"/>
     <tableColumn name="錄音編號" id="2"/>
     <tableColumn name="10詞" id="3"/>
-    <tableColumn name="Seediq Tgdaya 語" id="4"/>
+    <tableColumn name="Tgdaya" id="4"/>
     <tableColumn name="華語" id="5"/>
     <tableColumn name="備註" id="6"/>
   </tableColumns>
